--- a/design/sitemap.xlsx
+++ b/design/sitemap.xlsx
@@ -654,7 +654,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
